--- a/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_3.xlsx
+++ b/BioSTEAM 2.x.x/biorefineries/lipidcane2g/lipidcane_spearman_3.xlsx
@@ -478,16 +478,16 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>0.2222301062301062</v>
+        <v>0.1846339726339726</v>
       </c>
       <c r="D4">
-        <v>0.9843017643017644</v>
+        <v>0.9860784980784981</v>
       </c>
       <c r="E4">
-        <v>0.9840995400995401</v>
+        <v>0.9857869337869339</v>
       </c>
       <c r="F4">
-        <v>-0.9996902436902438</v>
+        <v>-0.9996921156921158</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -496,16 +496,16 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>0.103005847005847</v>
+        <v>0.1299310179310179</v>
       </c>
       <c r="D5">
-        <v>0.0903930783930784</v>
+        <v>0.07893840693840694</v>
       </c>
       <c r="E5">
-        <v>0.09181060381060381</v>
+        <v>0.08092000492000492</v>
       </c>
       <c r="F5">
-        <v>0.004537540537540538</v>
+        <v>0.02380664380664381</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -514,16 +514,16 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>-0.008851904851904853</v>
+        <v>-0.03253845253845254</v>
       </c>
       <c r="D6">
-        <v>0.1563227523227523</v>
+        <v>0.1981788301788302</v>
       </c>
       <c r="E6">
-        <v>0.157031209031209</v>
+        <v>0.1988854508854509</v>
       </c>
       <c r="F6">
-        <v>-0.02066492066492067</v>
+        <v>-0.07052771852771852</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -534,16 +534,16 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>0.6867300507300508</v>
+        <v>0.6748253548253548</v>
       </c>
       <c r="D7">
-        <v>0.008394260394260394</v>
+        <v>-0.01705280905280905</v>
       </c>
       <c r="E7">
-        <v>0.008191112191112192</v>
+        <v>-0.01695649695649696</v>
       </c>
       <c r="F7">
-        <v>-0.01160835560835561</v>
+        <v>0.01700845700845701</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -554,16 +554,16 @@
         <v>15</v>
       </c>
       <c r="C8">
-        <v>0.1618611178611179</v>
+        <v>0.2333666333666334</v>
       </c>
       <c r="D8">
-        <v>0.01750640950640951</v>
+        <v>-0.01906589506589507</v>
       </c>
       <c r="E8">
-        <v>0.0174940134940135</v>
+        <v>-0.01902316302316302</v>
       </c>
       <c r="F8">
-        <v>-0.01851930651930652</v>
+        <v>0.02685227085227086</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -574,16 +574,16 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>-0.03165544365544366</v>
+        <v>-0.005874533874533875</v>
       </c>
       <c r="D9">
-        <v>0.05785509385509386</v>
+        <v>-0.001835209835209836</v>
       </c>
       <c r="E9">
-        <v>0.05786463386463386</v>
+        <v>-0.002003198003198003</v>
       </c>
       <c r="F9">
-        <v>-0.05613311613311614</v>
+        <v>0.002053406053406054</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -592,16 +592,16 @@
         <v>17</v>
       </c>
       <c r="C10">
-        <v>0.2733878253878254</v>
+        <v>0.2312251472251472</v>
       </c>
       <c r="D10">
-        <v>0.01536329136329136</v>
+        <v>-0.05967889167889168</v>
       </c>
       <c r="E10">
-        <v>0.01530758730758731</v>
+        <v>-0.05942503142503143</v>
       </c>
       <c r="F10">
-        <v>-0.01546502746502747</v>
+        <v>0.06388628788628789</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -610,16 +610,16 @@
         <v>18</v>
       </c>
       <c r="C11">
-        <v>-0.5970455250455251</v>
+        <v>-0.5666374826374827</v>
       </c>
       <c r="D11">
-        <v>-0.01155257955257955</v>
+        <v>-0.01414716214716215</v>
       </c>
       <c r="E11">
-        <v>-0.01162155562155562</v>
+        <v>-0.01417152217152217</v>
       </c>
       <c r="F11">
-        <v>0.001172689172689173</v>
+        <v>0.01435358635358636</v>
       </c>
     </row>
   </sheetData>
